--- a/CarasigUpdate.xlsx
+++ b/CarasigUpdate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henryhuynh/Documents/Uni Stuff/CS Y2/Advanced_Programming_Techniques/apt-assign2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydro\Desktop\Files\C++\Advanced Programming Techniques\apt-assign2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816EBF12-D5E9-DD44-A7C9-8BD5CA5FCEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3E9786-A438-4C0C-AA0C-B85854904630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -585,8 +585,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -609,107 +607,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="12"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2164,11 +2068,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
@@ -2181,7 +2085,7 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -2195,7 +2099,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2113,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2221,7 +2125,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2235,7 +2139,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -2255,7 +2159,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2273,7 +2177,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2291,11 +2195,11 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="39" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="3"/>
@@ -2309,7 +2213,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -2323,7 +2227,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2337,7 +2241,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="6"/>
@@ -2349,7 +2253,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
@@ -2380,7 +2284,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
@@ -2404,7 +2308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
       <c r="C14" s="18"/>
@@ -2428,7 +2332,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="7"/>
       <c r="C15" s="18"/>
@@ -2452,7 +2356,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="7"/>
       <c r="C16" s="18"/>
@@ -2464,7 +2368,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
       <c r="C17" s="18"/>
@@ -2475,7 +2379,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="7"/>
       <c r="C18" s="25"/>
@@ -2487,23 +2391,23 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="28"/>
       <c r="G19" s="29"/>
       <c r="H19" s="26"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="30"/>
@@ -2515,7 +2419,7 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="6"/>
@@ -2527,7 +2431,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
@@ -2558,7 +2462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="7"/>
       <c r="C23" s="34"/>
@@ -2569,20 +2473,20 @@
       <c r="F23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="7"/>
       <c r="C24" s="12"/>
@@ -2593,20 +2497,20 @@
       <c r="F24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="43" t="s">
+      <c r="H24" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="J24" s="44" t="s">
+      <c r="J24" s="42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="7"/>
       <c r="C25" s="18"/>
@@ -2617,20 +2521,20 @@
       <c r="F25" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="H25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="47" t="s">
+      <c r="I25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="J25" s="47" t="s">
+      <c r="J25" s="45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="7"/>
       <c r="C26" s="18"/>
@@ -2643,7 +2547,7 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
       <c r="C27" s="18"/>
@@ -2657,7 +2561,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="1:10" ht="30.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="30.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18"/>
@@ -2671,7 +2575,7 @@
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="7"/>
       <c r="C29" s="18"/>
@@ -2685,7 +2589,7 @@
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="7"/>
       <c r="C30" s="25"/>
@@ -2697,23 +2601,23 @@
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="37"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="28"/>
       <c r="G31" s="29"/>
       <c r="H31" s="26"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="30"/>
@@ -2725,7 +2629,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="6"/>
@@ -2737,7 +2641,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8" t="s">
@@ -2767,7 +2671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
       <c r="C35" s="12"/>
@@ -2778,12 +2682,20 @@
       <c r="F35" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-    </row>
-    <row r="36" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="16">
+        <v>25</v>
+      </c>
+      <c r="H35" s="17">
+        <v>25</v>
+      </c>
+      <c r="I35" s="14">
+        <v>25</v>
+      </c>
+      <c r="J35" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
       <c r="C36" s="18"/>
@@ -2799,7 +2711,7 @@
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="7"/>
       <c r="C37" s="18"/>
@@ -2815,7 +2727,7 @@
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="7"/>
       <c r="C38" s="18"/>
@@ -2829,7 +2741,7 @@
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="7"/>
       <c r="C39" s="18"/>
@@ -2841,7 +2753,7 @@
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="7"/>
       <c r="C40" s="25"/>
@@ -2853,23 +2765,23 @@
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="37"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="28"/>
       <c r="G41" s="29"/>
       <c r="H41" s="26"/>
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="30"/>
@@ -2881,7 +2793,7 @@
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
     </row>
-    <row r="43" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="6"/>
@@ -2893,7 +2805,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8" t="s">
@@ -2923,7 +2835,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="7"/>
       <c r="C45" s="12"/>
@@ -2939,7 +2851,7 @@
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
     </row>
-    <row r="46" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18"/>
@@ -2955,7 +2867,7 @@
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="7"/>
       <c r="C47" s="18"/>
@@ -2969,7 +2881,7 @@
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="7"/>
       <c r="C48" s="18"/>
@@ -2983,7 +2895,7 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="7"/>
       <c r="C49" s="18"/>
@@ -2997,7 +2909,7 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="7"/>
       <c r="C50" s="25"/>
@@ -3009,23 +2921,23 @@
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="37"/>
+      <c r="E51" s="47"/>
       <c r="F51" s="28"/>
       <c r="G51" s="29"/>
       <c r="H51" s="26"/>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
     </row>
-    <row r="52" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="30"/>
@@ -3037,7 +2949,7 @@
       <c r="I52" s="30"/>
       <c r="J52" s="30"/>
     </row>
-    <row r="53" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="6"/>
@@ -3057,105 +2969,105 @@
     <mergeCell ref="D51:E51"/>
   </mergeCells>
   <conditionalFormatting sqref="F19:I19 A24:C26 A1:I16 A18:I18 A17:C17 E17:I17 A19:D23 E20:I22 E23:E26 G23:I26 F23:F25">
-    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="41" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="42" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="43" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="44" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D26 A27:I28 A29:C31 E29:I29 D30:I30 D31 F31:I31 A32:I33 A34:E40 A41:D52 E42:I43 E44:E50 E52:I52 A53:I53">
-    <cfRule type="cellIs" dxfId="44" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="45" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="45" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="45" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="45" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J11 J13:J21 J23:J26">
-    <cfRule type="cellIs" dxfId="40" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="33" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="34" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="35" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="36" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J33 J42:J43 J52:J53">
-    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="37" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="29" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="31" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="32" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="cellIs" dxfId="31" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="25" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="27" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="28" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="23" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CarasigUpdate.xlsx
+++ b/CarasigUpdate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydro\Desktop\Files\C++\Advanced Programming Techniques\apt-assign2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henryhuynh/Documents/Uni Stuff/CS Y2/Advanced_Programming_Techniques/apt-assign2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3E9786-A438-4C0C-AA0C-B85854904630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C30622A-0885-7248-9ABB-046A8FE0FA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="49">
   <si>
     <t>Assignment 2 | Weekly Update Tracking Sheet</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Fixed the issue</t>
+  </si>
+  <si>
+    <t>Test cases random output</t>
   </si>
 </sst>
 </file>
@@ -2068,11 +2071,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D23" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
@@ -2085,7 +2088,7 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -2099,7 +2102,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2113,7 +2116,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2125,7 +2128,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2139,7 +2142,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -2159,7 +2162,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2177,7 +2180,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2195,7 +2198,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -2213,7 +2216,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -2227,7 +2230,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2241,7 +2244,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="6"/>
@@ -2253,7 +2256,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
@@ -2284,7 +2287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
@@ -2308,7 +2311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
       <c r="C14" s="18"/>
@@ -2332,7 +2335,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7"/>
       <c r="C15" s="18"/>
@@ -2356,7 +2359,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7"/>
       <c r="C16" s="18"/>
@@ -2368,7 +2371,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
       <c r="C17" s="18"/>
@@ -2379,7 +2382,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7"/>
       <c r="C18" s="25"/>
@@ -2391,7 +2394,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
@@ -2407,7 +2410,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="30"/>
@@ -2419,7 +2422,7 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="6"/>
@@ -2431,7 +2434,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
@@ -2462,7 +2465,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7"/>
       <c r="C23" s="34"/>
@@ -2486,7 +2489,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7"/>
       <c r="C24" s="12"/>
@@ -2510,7 +2513,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7"/>
       <c r="C25" s="18"/>
@@ -2534,7 +2537,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7"/>
       <c r="C26" s="18"/>
@@ -2547,7 +2550,7 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
       <c r="C27" s="18"/>
@@ -2561,7 +2564,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="1:10" ht="30.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="30.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18"/>
@@ -2575,7 +2578,7 @@
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7"/>
       <c r="C29" s="18"/>
@@ -2589,7 +2592,7 @@
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7"/>
       <c r="C30" s="25"/>
@@ -2601,7 +2604,7 @@
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
@@ -2617,7 +2620,7 @@
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="30"/>
@@ -2629,7 +2632,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="6"/>
@@ -2641,7 +2644,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8" t="s">
@@ -2671,7 +2674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
       <c r="C35" s="12"/>
@@ -2695,7 +2698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
       <c r="C36" s="18"/>
@@ -2706,12 +2709,20 @@
       <c r="F36" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7"/>
       <c r="C37" s="18"/>
@@ -2722,12 +2733,20 @@
       <c r="F37" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="22"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G37" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7"/>
       <c r="C38" s="18"/>
@@ -2741,7 +2760,7 @@
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7"/>
       <c r="C39" s="18"/>
@@ -2753,7 +2772,7 @@
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7"/>
       <c r="C40" s="25"/>
@@ -2765,7 +2784,7 @@
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8" t="s">
@@ -2781,7 +2800,7 @@
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="30"/>
@@ -2793,7 +2812,7 @@
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
     </row>
-    <row r="43" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="6"/>
@@ -2805,7 +2824,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8" t="s">
@@ -2835,7 +2854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="7"/>
       <c r="C45" s="12"/>
@@ -2846,12 +2865,20 @@
       <c r="F45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G45" s="16">
+        <v>25</v>
+      </c>
+      <c r="H45" s="16">
+        <v>25</v>
+      </c>
+      <c r="I45" s="16">
+        <v>25</v>
+      </c>
+      <c r="J45" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18"/>
@@ -2862,12 +2889,20 @@
       <c r="F46" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="7"/>
       <c r="C47" s="18"/>
@@ -2876,12 +2911,20 @@
       <c r="F47" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="7"/>
       <c r="C48" s="18"/>
@@ -2895,7 +2938,7 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="7"/>
       <c r="C49" s="18"/>
@@ -2909,7 +2952,7 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="7"/>
       <c r="C50" s="25"/>
@@ -2921,14 +2964,14 @@
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E51" s="47"/>
       <c r="F51" s="28"/>
@@ -2937,7 +2980,7 @@
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
     </row>
-    <row r="52" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="30"/>
@@ -2949,7 +2992,7 @@
       <c r="I52" s="30"/>
       <c r="J52" s="30"/>
     </row>
-    <row r="53" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="6"/>
